--- a/data/trans_camb/P16A01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,97</t>
+          <t>1,27; 9,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,49</t>
+          <t>-1,78; 5,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,97</t>
+          <t>-3,73; 3,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,44</t>
+          <t>-4,62; 4,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,07</t>
+          <t>-6,02; 2,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,16</t>
+          <t>-5,35; 2,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 5,93</t>
+          <t>-0,0; 5,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,2</t>
+          <t>-2,37; 3,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,76</t>
+          <t>-3,11; 1,78</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 177,8</t>
+          <t>14,97; 198,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 123,19</t>
+          <t>-23,03; 121,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 61,76</t>
+          <t>-46,57; 70,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 75,72</t>
+          <t>-44,14; 61,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 34,67</t>
+          <t>-55,47; 34,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 36,78</t>
+          <t>-45,9; 39,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 98,03</t>
+          <t>-0,62; 97,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 51,7</t>
+          <t>-28,36; 51,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 29,63</t>
+          <t>-36,92; 30,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,34</t>
+          <t>-3,44; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,55</t>
+          <t>-2,92; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 5,69</t>
+          <t>-2,4; 5,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,94</t>
+          <t>-2,69; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,93</t>
+          <t>-3,09; 5,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,67</t>
+          <t>-4,15; 2,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,99</t>
+          <t>-2,06; 3,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,04</t>
+          <t>-1,83; 3,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,22</t>
+          <t>-2,0; 3,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 91,36</t>
+          <t>-40,72; 93,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 96,7</t>
+          <t>-37,14; 106,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 118,46</t>
+          <t>-28,28; 115,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 102,16</t>
+          <t>-27,96; 108,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 86,73</t>
+          <t>-33,81; 100,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 49,01</t>
+          <t>-42,85; 50,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 69,55</t>
+          <t>-23,94; 67,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 68,94</t>
+          <t>-20,72; 65,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 56,4</t>
+          <t>-23,77; 55,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,44</t>
+          <t>-2,7; 4,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,3</t>
+          <t>-3,04; 4,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,93</t>
+          <t>-7,47; 2,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 3,31</t>
+          <t>-9,64; 2,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,99</t>
+          <t>-7,55; 6,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,24</t>
+          <t>-7,06; 6,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,96</t>
+          <t>-3,12; 3,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,69</t>
+          <t>-2,32; 3,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 2,6</t>
+          <t>-6,73; 2,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 74,16</t>
+          <t>-26,88; 72,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 70,85</t>
+          <t>-30,21; 68,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,76; 40,7</t>
+          <t>-74,66; 39,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 57,35</t>
+          <t>-65,62; 37,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 94,62</t>
+          <t>-53,18; 89,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 95,05</t>
+          <t>-47,05; 93,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 43,63</t>
+          <t>-29,23; 47,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 54,84</t>
+          <t>-24,57; 58,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 32,09</t>
+          <t>-64,41; 33,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,31</t>
+          <t>0,6; 5,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,21</t>
+          <t>-1,14; 3,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,52</t>
+          <t>-2,02; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,06</t>
+          <t>0,48; 6,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,3</t>
+          <t>-2,15; 3,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,68</t>
+          <t>-5,51; 0,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,92</t>
+          <t>1,21; 5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,56</t>
+          <t>-0,82; 2,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,94</t>
+          <t>-2,91; 1,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 90,71</t>
+          <t>7,66; 90,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 52,98</t>
+          <t>-14,39; 52,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 41,25</t>
+          <t>-25,67; 44,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 113,88</t>
+          <t>5,86; 112,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 59,33</t>
+          <t>-23,68; 59,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 10,21</t>
+          <t>-65,45; 8,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,83; 80,04</t>
+          <t>15,8; 80,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 41,15</t>
+          <t>-10,53; 44,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 14,83</t>
+          <t>-38,24; 15,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,25</t>
+          <t>-1,84; 5,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,85</t>
+          <t>-3,61; 2,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,56</t>
+          <t>-4,43; 2,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,35</t>
+          <t>-1,3; 4,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,32</t>
+          <t>-0,48; 5,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,76</t>
+          <t>-0,75; 5,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,79</t>
+          <t>-0,65; 4,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,58</t>
+          <t>-0,74; 3,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,66</t>
+          <t>-0,73; 3,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 95,31</t>
+          <t>-19,62; 100,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 56,53</t>
+          <t>-40,1; 54,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 49,72</t>
+          <t>-49,34; 58,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 103,33</t>
+          <t>-17,44; 112,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 127,03</t>
+          <t>-6,01; 140,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 137,01</t>
+          <t>-9,87; 126,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 71,45</t>
+          <t>-9,56; 81,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 73,14</t>
+          <t>-9,89; 73,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 71,84</t>
+          <t>-9,51; 78,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,41</t>
+          <t>-0,36; 8,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,7</t>
+          <t>-3,23; 4,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,11</t>
+          <t>-6,86; -0,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,69</t>
+          <t>0,6; 4,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,34</t>
+          <t>1,87; 6,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,13</t>
+          <t>-0,18; 4,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,88</t>
+          <t>1,0; 4,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,43</t>
+          <t>1,3; 5,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,62</t>
+          <t>-1,28; 2,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 217,42</t>
+          <t>-8,48; 216,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 120,63</t>
+          <t>-41,62; 123,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-92,31; 61,64</t>
+          <t>-91,53; 19,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,36; 113,29</t>
+          <t>10,47; 109,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,75; 146,12</t>
+          <t>30,47; 150,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 95,26</t>
+          <t>-3,77; 95,68</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,7; 110,5</t>
+          <t>16,1; 111,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,49; 121,85</t>
+          <t>22,11; 117,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 59,12</t>
+          <t>-22,06; 54,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,9</t>
+          <t>1,14; 3,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,1</t>
+          <t>-0,5; 2,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,02</t>
+          <t>-2,18; 1,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,2</t>
+          <t>0,49; 3,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,13</t>
+          <t>0,58; 3,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,8</t>
+          <t>-0,98; 1,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,21</t>
+          <t>1,16; 3,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,33</t>
+          <t>0,38; 2,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,06</t>
+          <t>-1,11; 1,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,37; 61,83</t>
+          <t>14,35; 61,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 32,99</t>
+          <t>-6,74; 33,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 15,44</t>
+          <t>-28,98; 15,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,53; 54,0</t>
+          <t>6,87; 57,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>10,05; 53,0</t>
+          <t>7,32; 54,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 30,72</t>
+          <t>-13,93; 30,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,43; 52,26</t>
+          <t>16,63; 50,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,18; 38,03</t>
+          <t>5,55; 36,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 16,56</t>
+          <t>-16,16; 17,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
